--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29520E9B-2F55-43C6-BF93-41C3F02DCC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="-23148" yWindow="1680" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Key</t>
   </si>
@@ -44,20 +45,29 @@
     <t>QueueName</t>
   </si>
   <si>
-    <t>TestQueue</t>
-  </si>
-  <si>
     <t>DummyShouldStopMasterAssetName</t>
   </si>
   <si>
     <t>ShouldStopMasterAssetName</t>
+  </si>
+  <si>
+    <t>Prueba RPA</t>
+  </si>
+  <si>
+    <t>Nombre de la cola de datos con la trabajará este script.</t>
+  </si>
+  <si>
+    <t>UrlFormulario</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSfQ9hrknsKBv4xR99bKXvOBr9EksrH7_KzmkoaqIFbjEtZIaQ/viewform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +82,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,14 +110,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,14 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -407,23 +428,37 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{10BE0F5B-4A3C-4873-9CD8-233C1865E323}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
@@ -459,10 +494,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -472,12 +507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
